--- a/data/Subset1_WithDialogActs/Number line models 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Number line models 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2185,12 +2185,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
